--- a/biology/Médecine/Fédération_française_des_diabétiques/Fédération_française_des_diabétiques.xlsx
+++ b/biology/Médecine/Fédération_française_des_diabétiques/Fédération_française_des_diabétiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_des_diab%C3%A9tiques</t>
+          <t>Fédération_française_des_diabétiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération française des diabétiques ou FFD (ou Association française des diabétiques ou AFD jusqu’en 2013) est une association de patients atteints de diabète[1] qui accompagne, défend et informe les personnes diabétiques et leur entourage[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération française des diabétiques ou FFD (ou Association française des diabétiques ou AFD jusqu’en 2013) est une association de patients atteints de diabète qui accompagne, défend et informe les personnes diabétiques et leur entourage.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_des_diab%C3%A9tiques</t>
+          <t>Fédération_française_des_diabétiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé le 25 mars 1938[2],[3] par Maurice Paz et reconnue d'utilité publique le 3 décembre 1976[2],[3], elle regroupe une centaine d'associations et délégations[4] sur le territoire national (métropole et DOM).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé le 25 mars 1938, par Maurice Paz et reconnue d'utilité publique le 3 décembre 1976 elle regroupe une centaine d'associations et délégations sur le territoire national (métropole et DOM).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_des_diab%C3%A9tiques</t>
+          <t>Fédération_française_des_diabétiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1952[5], la Fédération française des diabétiques fait partie de la Fédération internationale du diabète (en).
-Depuis 2012[6], la Fédération organise chaque année une semaine nationale de dépistage des risques du diabète[7],[8],[9],[10],[11],[12],[13]. Elle organise aussi chaque année en novembre des événements autour de la Journée mondiale du diabète, à Paris et partout en France.
-En mars 2015, la Fédération lance le Diabète LAB[14], un living lab destiné à recueillir et affiner les besoins et les usages des patients diabétiques, cocréer les concepts de produits ou de services les plus adaptés à ces besoins identifiés, tester ces innovations auprès de patients volontaires de l’idée au prototype, et agréer les produits et services en adéquation avec les attentes des patients.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1952, la Fédération française des diabétiques fait partie de la Fédération internationale du diabète (en).
+Depuis 2012, la Fédération organise chaque année une semaine nationale de dépistage des risques du diabète. Elle organise aussi chaque année en novembre des événements autour de la Journée mondiale du diabète, à Paris et partout en France.
+En mars 2015, la Fédération lance le Diabète LAB, un living lab destiné à recueillir et affiner les besoins et les usages des patients diabétiques, cocréer les concepts de produits ou de services les plus adaptés à ces besoins identifiés, tester ces innovations auprès de patients volontaires de l’idée au prototype, et agréer les produits et services en adéquation avec les attentes des patients.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_des_diab%C3%A9tiques</t>
+          <t>Fédération_française_des_diabétiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Agnès Hartemann-Heurtier et René Frydman, « Le diabète », sur franceculture.fr, 4 avril 2013 (consulté le 13 octobre 2015)
